--- a/day18/data/cases.xlsx
+++ b/day18/data/cases.xlsx
@@ -386,6 +386,11 @@
           <t>{"code": 0, "msg": "登录成功"}</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>不通过</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -406,6 +411,11 @@
           <t>{"code": 1, "msg": "账号或密码不正确"}</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>不通过</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -426,6 +436,11 @@
           <t>{"code": 1, "msg": "账号或密码不正确"}</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>不通过</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -446,6 +461,11 @@
           <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>不通过</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -464,6 +484,11 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>{"code": 1, "msg": "所有的参数不能为空"}</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>不通过</t>
         </is>
       </c>
     </row>
